--- a/biology/Zoologie/Eumerini/Eumerini.xlsx
+++ b/biology/Zoologie/Eumerini/Eumerini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Eumerini sont une tribu d'insectes diptères brachycères de la famille des Syrphidae, de la sous-famille des Eristalinae. Cette tribu est synonyme de Merodontini.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La tribu des Eumerini a été créée en 1924 par le diptérologue russe Evgeny Sergeevich Smirnov (d) (1898-1977).
-Certaines sources, dont NCBI[3] et Paleobiology Database[4], préfèrent classer les genres concernés dans la tribu des Merodontini attribuée, en 1915, à l'entomologiste britannique Frederick Wallace Edwards (1888-1940)[5].
+Certaines sources, dont NCBI et Paleobiology Database, préfèrent classer les genres concernés dans la tribu des Merodontini attribuée, en 1915, à l'entomologiste britannique Frederick Wallace Edwards (1888-1940).
 </t>
         </is>
       </c>
@@ -543,14 +557,16 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Tribu Eumerini - selon ITIS      (17 mai 2019)[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tribu Eumerini - selon ITIS      (17 mai 2019) :
 Eumerus
 Merodon
 Nausigaster
 Psilota
-Tribu Merodontini - selon BioLib                    (26 juillet 2021)[7] :
+Tribu Merodontini - selon BioLib                    (26 juillet 2021) :
 Alipumilio Shannon, 1927
 Eumerus Meigen, 1822
 Lyneborgimyia Doczkal &amp; Pape, 2009
